--- a/data/pca/factorExposure/factorExposure_2012-05-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-05-09.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01724681180695792</v>
+        <v>0.01865411525132644</v>
       </c>
       <c r="C2">
-        <v>-0.03598614710276523</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02732031236206654</v>
+      </c>
+      <c r="D2">
+        <v>0.005415887363995751</v>
+      </c>
+      <c r="E2">
+        <v>-0.02303943944798505</v>
+      </c>
+      <c r="F2">
+        <v>0.01074373015888476</v>
+      </c>
+      <c r="G2">
+        <v>0.0118386878595951</v>
+      </c>
+      <c r="H2">
+        <v>-0.05014133926484384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07204207104110039</v>
+        <v>0.0819756792007116</v>
       </c>
       <c r="C4">
-        <v>-0.06198322405353245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.04098109439067829</v>
+      </c>
+      <c r="D4">
+        <v>-0.06747644865353948</v>
+      </c>
+      <c r="E4">
+        <v>-0.001763969767403181</v>
+      </c>
+      <c r="F4">
+        <v>0.03087578481640027</v>
+      </c>
+      <c r="G4">
+        <v>-2.904301920431401e-05</v>
+      </c>
+      <c r="H4">
+        <v>0.04217173355115178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.09988908047487167</v>
+        <v>0.1172948704806902</v>
       </c>
       <c r="C6">
-        <v>-0.06593943532263012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04198748406896909</v>
+      </c>
+      <c r="D6">
+        <v>-0.0107258835976643</v>
+      </c>
+      <c r="E6">
+        <v>0.005376373111913064</v>
+      </c>
+      <c r="F6">
+        <v>0.05772327257127909</v>
+      </c>
+      <c r="G6">
+        <v>0.01854341713236873</v>
+      </c>
+      <c r="H6">
+        <v>-0.0650373314871109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0488729341396141</v>
+        <v>0.06051780882992304</v>
       </c>
       <c r="C7">
-        <v>-0.0291061939288418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.01946587432151617</v>
+      </c>
+      <c r="D7">
+        <v>-0.04032000259787715</v>
+      </c>
+      <c r="E7">
+        <v>-0.02243717412588341</v>
+      </c>
+      <c r="F7">
+        <v>0.03749532902390755</v>
+      </c>
+      <c r="G7">
+        <v>-0.03998110704164254</v>
+      </c>
+      <c r="H7">
+        <v>0.0265202406932267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03470534030648002</v>
+        <v>0.03848722251569656</v>
       </c>
       <c r="C8">
-        <v>-0.02070759635807892</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01130003292994563</v>
+      </c>
+      <c r="D8">
+        <v>-0.03332625263834756</v>
+      </c>
+      <c r="E8">
+        <v>-0.01109901734077036</v>
+      </c>
+      <c r="F8">
+        <v>0.04462706334459702</v>
+      </c>
+      <c r="G8">
+        <v>0.03140934345142322</v>
+      </c>
+      <c r="H8">
+        <v>-0.009504413794010321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06687256194599278</v>
+        <v>0.07561077460237366</v>
       </c>
       <c r="C9">
-        <v>-0.04845889810082951</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02857164146169618</v>
+      </c>
+      <c r="D9">
+        <v>-0.0619654389581933</v>
+      </c>
+      <c r="E9">
+        <v>-0.02199668508854503</v>
+      </c>
+      <c r="F9">
+        <v>0.03909184052766003</v>
+      </c>
+      <c r="G9">
+        <v>0.002063304092157581</v>
+      </c>
+      <c r="H9">
+        <v>0.05997957528517015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03011756008372073</v>
+        <v>0.03733753966239065</v>
       </c>
       <c r="C10">
-        <v>-0.03144890253003846</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.03213359310051155</v>
+      </c>
+      <c r="D10">
+        <v>0.1733779564403168</v>
+      </c>
+      <c r="E10">
+        <v>-0.04359780637678411</v>
+      </c>
+      <c r="F10">
+        <v>0.04356868725081187</v>
+      </c>
+      <c r="G10">
+        <v>-0.04144712632496882</v>
+      </c>
+      <c r="H10">
+        <v>-0.04076546719887672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06785112522390678</v>
+        <v>0.0740595562420252</v>
       </c>
       <c r="C11">
-        <v>-0.05197399048852398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.03037964752790667</v>
+      </c>
+      <c r="D11">
+        <v>-0.06091553125352668</v>
+      </c>
+      <c r="E11">
+        <v>0.01215201031454351</v>
+      </c>
+      <c r="F11">
+        <v>0.02593679597426746</v>
+      </c>
+      <c r="G11">
+        <v>-0.007965541502904213</v>
+      </c>
+      <c r="H11">
+        <v>0.08965266910849015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05412458456376925</v>
+        <v>0.06312774222128577</v>
       </c>
       <c r="C12">
-        <v>-0.05334978645252243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03675301232748571</v>
+      </c>
+      <c r="D12">
+        <v>-0.04373753282457341</v>
+      </c>
+      <c r="E12">
+        <v>-0.008755513434815813</v>
+      </c>
+      <c r="F12">
+        <v>0.02030150281409768</v>
+      </c>
+      <c r="G12">
+        <v>-0.0008104613024258884</v>
+      </c>
+      <c r="H12">
+        <v>0.05616564536560414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05913791830978426</v>
+        <v>0.06390532352495054</v>
       </c>
       <c r="C13">
-        <v>-0.04720939850033939</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.02808180004805353</v>
+      </c>
+      <c r="D13">
+        <v>-0.03888025918117586</v>
+      </c>
+      <c r="E13">
+        <v>-0.0004250799133956329</v>
+      </c>
+      <c r="F13">
+        <v>0.001576231910090134</v>
+      </c>
+      <c r="G13">
+        <v>-0.003961758617581218</v>
+      </c>
+      <c r="H13">
+        <v>0.05740901488920206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03170166709068278</v>
+        <v>0.04137415714437678</v>
       </c>
       <c r="C14">
-        <v>-0.03117821957045562</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02471379174437521</v>
+      </c>
+      <c r="D14">
+        <v>-0.004017885805549072</v>
+      </c>
+      <c r="E14">
+        <v>-0.02352331407182694</v>
+      </c>
+      <c r="F14">
+        <v>0.01711264301907844</v>
+      </c>
+      <c r="G14">
+        <v>0.01020147177979298</v>
+      </c>
+      <c r="H14">
+        <v>0.06286606652237597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.0386787229152338</v>
+        <v>0.03993350955666862</v>
       </c>
       <c r="C15">
-        <v>-0.01177360497997472</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.002705272580908422</v>
+      </c>
+      <c r="D15">
+        <v>-0.006206220558602432</v>
+      </c>
+      <c r="E15">
+        <v>-0.04014276968990931</v>
+      </c>
+      <c r="F15">
+        <v>0.0001222306246593435</v>
+      </c>
+      <c r="G15">
+        <v>0.02415256137173468</v>
+      </c>
+      <c r="H15">
+        <v>0.05494975454870459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05723595370621997</v>
+        <v>0.066186721653325</v>
       </c>
       <c r="C16">
-        <v>-0.04550340179170597</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02977512213477832</v>
+      </c>
+      <c r="D16">
+        <v>-0.06029125813997913</v>
+      </c>
+      <c r="E16">
+        <v>-0.001343178020796309</v>
+      </c>
+      <c r="F16">
+        <v>0.02499838513386006</v>
+      </c>
+      <c r="G16">
+        <v>-0.005101646342202614</v>
+      </c>
+      <c r="H16">
+        <v>0.05565666571779303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06102901407054217</v>
+        <v>0.06190562731640255</v>
       </c>
       <c r="C20">
-        <v>-0.03939381715087834</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01842456980435989</v>
+      </c>
+      <c r="D20">
+        <v>-0.05059634907017126</v>
+      </c>
+      <c r="E20">
+        <v>-0.01784151244643098</v>
+      </c>
+      <c r="F20">
+        <v>0.02444603450148811</v>
+      </c>
+      <c r="G20">
+        <v>-0.0005260659782045733</v>
+      </c>
+      <c r="H20">
+        <v>0.05336736702106856</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02424276374955841</v>
+        <v>0.0247471523013394</v>
       </c>
       <c r="C21">
-        <v>-0.001288706417508393</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.006698843803991619</v>
+      </c>
+      <c r="D21">
+        <v>-0.03766780283646148</v>
+      </c>
+      <c r="E21">
+        <v>-0.0756117769382721</v>
+      </c>
+      <c r="F21">
+        <v>-0.01304005602896206</v>
+      </c>
+      <c r="G21">
+        <v>0.004690529623270712</v>
+      </c>
+      <c r="H21">
+        <v>-0.03001802995425273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.06883094288588934</v>
+        <v>0.06420482219817872</v>
       </c>
       <c r="C22">
-        <v>-0.06798026677758837</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04038695405555206</v>
+      </c>
+      <c r="D22">
+        <v>-0.09581879397114709</v>
+      </c>
+      <c r="E22">
+        <v>-0.6129602398086935</v>
+      </c>
+      <c r="F22">
+        <v>-0.1290755030420813</v>
+      </c>
+      <c r="G22">
+        <v>-0.02801948491518604</v>
+      </c>
+      <c r="H22">
+        <v>-0.1400264815019252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.06979439673788258</v>
+        <v>0.06486107061785515</v>
       </c>
       <c r="C23">
-        <v>-0.06717676908313355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03931446963686113</v>
+      </c>
+      <c r="D23">
+        <v>-0.09671546582382476</v>
+      </c>
+      <c r="E23">
+        <v>-0.6120673414141574</v>
+      </c>
+      <c r="F23">
+        <v>-0.1282382983672997</v>
+      </c>
+      <c r="G23">
+        <v>-0.02663958177145814</v>
+      </c>
+      <c r="H23">
+        <v>-0.1353078994993379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06643943879697385</v>
+        <v>0.07583807445923135</v>
       </c>
       <c r="C24">
-        <v>-0.05402028376429154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03441017069449783</v>
+      </c>
+      <c r="D24">
+        <v>-0.05780272028864381</v>
+      </c>
+      <c r="E24">
+        <v>-0.009335780023217161</v>
+      </c>
+      <c r="F24">
+        <v>0.03476147067297861</v>
+      </c>
+      <c r="G24">
+        <v>0.004163615071301883</v>
+      </c>
+      <c r="H24">
+        <v>0.0679057045493508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.06683531789431023</v>
+        <v>0.07380683510279183</v>
       </c>
       <c r="C25">
-        <v>-0.06016976870752467</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03882051096538462</v>
+      </c>
+      <c r="D25">
+        <v>-0.05389673225409986</v>
+      </c>
+      <c r="E25">
+        <v>-0.01117180708855712</v>
+      </c>
+      <c r="F25">
+        <v>0.0294654756234937</v>
+      </c>
+      <c r="G25">
+        <v>0.01674291817832042</v>
+      </c>
+      <c r="H25">
+        <v>0.07276758196398023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04128789777058063</v>
+        <v>0.04505653381867914</v>
       </c>
       <c r="C26">
-        <v>-0.01257227232527736</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.0034346234082918</v>
+      </c>
+      <c r="D26">
+        <v>-0.02649238576788367</v>
+      </c>
+      <c r="E26">
+        <v>-0.03703147857330558</v>
+      </c>
+      <c r="F26">
+        <v>0.02466043556140605</v>
+      </c>
+      <c r="G26">
+        <v>-0.004752181882241381</v>
+      </c>
+      <c r="H26">
+        <v>0.06562918291506376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0570829825047318</v>
+        <v>0.07285639204148747</v>
       </c>
       <c r="C28">
-        <v>-0.07035662155202251</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.06846992790404162</v>
+      </c>
+      <c r="D28">
+        <v>0.3162979911377811</v>
+      </c>
+      <c r="E28">
+        <v>-0.03434674428644958</v>
+      </c>
+      <c r="F28">
+        <v>0.05777561174104449</v>
+      </c>
+      <c r="G28">
+        <v>0.02576634338842051</v>
+      </c>
+      <c r="H28">
+        <v>-0.002653974284719959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03893486341323111</v>
+        <v>0.04667144681619754</v>
       </c>
       <c r="C29">
-        <v>-0.03133466059176297</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02306874419613832</v>
+      </c>
+      <c r="D29">
+        <v>-0.005984873437231745</v>
+      </c>
+      <c r="E29">
+        <v>-0.04508231648695202</v>
+      </c>
+      <c r="F29">
+        <v>0.008907211151619873</v>
+      </c>
+      <c r="G29">
+        <v>-0.006996749732920519</v>
+      </c>
+      <c r="H29">
+        <v>0.09400759477311238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.117430588095649</v>
+        <v>0.13083234335517</v>
       </c>
       <c r="C30">
-        <v>-0.09988772779621524</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06236819119014835</v>
+      </c>
+      <c r="D30">
+        <v>-0.08489430070302352</v>
+      </c>
+      <c r="E30">
+        <v>-0.04356712020623184</v>
+      </c>
+      <c r="F30">
+        <v>0.006719773875881129</v>
+      </c>
+      <c r="G30">
+        <v>0.03547399442006019</v>
+      </c>
+      <c r="H30">
+        <v>-0.02350700714583941</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03954802428986633</v>
+        <v>0.04557602465221941</v>
       </c>
       <c r="C31">
-        <v>-0.0221844409895658</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01209928735947084</v>
+      </c>
+      <c r="D31">
+        <v>-0.02468705536427033</v>
+      </c>
+      <c r="E31">
+        <v>-0.02399747458440976</v>
+      </c>
+      <c r="F31">
+        <v>0.01342061733416556</v>
+      </c>
+      <c r="G31">
+        <v>-0.01914986314823407</v>
+      </c>
+      <c r="H31">
+        <v>0.07266457486735416</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03481219391827753</v>
+        <v>0.03429587686767893</v>
       </c>
       <c r="C32">
-        <v>-0.02289304380637382</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01253066189098022</v>
+      </c>
+      <c r="D32">
+        <v>-0.01520672151481199</v>
+      </c>
+      <c r="E32">
+        <v>-0.06763230781195681</v>
+      </c>
+      <c r="F32">
+        <v>0.000377599876176698</v>
+      </c>
+      <c r="G32">
+        <v>0.0323360683648112</v>
+      </c>
+      <c r="H32">
+        <v>0.05016629582510467</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.07557809632288222</v>
+        <v>0.09278418152464736</v>
       </c>
       <c r="C33">
-        <v>-0.04800458315319039</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03026427873233968</v>
+      </c>
+      <c r="D33">
+        <v>-0.05593690633218343</v>
+      </c>
+      <c r="E33">
+        <v>-0.01654527004342072</v>
+      </c>
+      <c r="F33">
+        <v>0.008901212096444183</v>
+      </c>
+      <c r="G33">
+        <v>-0.01346427406386873</v>
+      </c>
+      <c r="H33">
+        <v>0.07059778308329762</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0533960163250954</v>
+        <v>0.05823044629689787</v>
       </c>
       <c r="C34">
-        <v>-0.03526534931764488</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01822180143639308</v>
+      </c>
+      <c r="D34">
+        <v>-0.05490730728308106</v>
+      </c>
+      <c r="E34">
+        <v>-0.003099507565938196</v>
+      </c>
+      <c r="F34">
+        <v>0.01798779539123616</v>
+      </c>
+      <c r="G34">
+        <v>0.00518087644797126</v>
+      </c>
+      <c r="H34">
+        <v>0.05217350588627579</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03644976624952047</v>
+        <v>0.04061809096418627</v>
       </c>
       <c r="C35">
-        <v>-0.01376475465538252</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.005268106393510346</v>
+      </c>
+      <c r="D35">
+        <v>-0.01140457504740612</v>
+      </c>
+      <c r="E35">
+        <v>-0.02160085413149895</v>
+      </c>
+      <c r="F35">
+        <v>-0.005938540250199636</v>
+      </c>
+      <c r="G35">
+        <v>-0.01228560032568725</v>
+      </c>
+      <c r="H35">
+        <v>0.03514509047524195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01918319744925128</v>
+        <v>0.02512027845325572</v>
       </c>
       <c r="C36">
-        <v>-0.01569439751019445</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01113348365727988</v>
+      </c>
+      <c r="D36">
+        <v>-0.01637930513802786</v>
+      </c>
+      <c r="E36">
+        <v>-0.03842872941364224</v>
+      </c>
+      <c r="F36">
+        <v>0.01963915131772477</v>
+      </c>
+      <c r="G36">
+        <v>-0.01120518870163706</v>
+      </c>
+      <c r="H36">
+        <v>0.05625476120453557</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03835972341076341</v>
+        <v>0.04170975565589211</v>
       </c>
       <c r="C38">
-        <v>-0.006150910663728909</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.001424826548092342</v>
+      </c>
+      <c r="D38">
+        <v>-0.01938309672799353</v>
+      </c>
+      <c r="E38">
+        <v>-0.05839257529262338</v>
+      </c>
+      <c r="F38">
+        <v>-0.005627004176299035</v>
+      </c>
+      <c r="G38">
+        <v>0.01816236414169761</v>
+      </c>
+      <c r="H38">
+        <v>0.0272488877382722</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08772146758604261</v>
+        <v>0.1018586965885957</v>
       </c>
       <c r="C39">
-        <v>-0.08162342299000246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05473523091702943</v>
+      </c>
+      <c r="D39">
+        <v>-0.0710155504386436</v>
+      </c>
+      <c r="E39">
+        <v>0.01352617760700805</v>
+      </c>
+      <c r="F39">
+        <v>0.0113696549785555</v>
+      </c>
+      <c r="G39">
+        <v>0.02100734310426601</v>
+      </c>
+      <c r="H39">
+        <v>0.05455256530102166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.06860832613547009</v>
+        <v>0.07037782486620496</v>
       </c>
       <c r="C40">
-        <v>-0.05386947685431829</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.0303478184648935</v>
+      </c>
+      <c r="D40">
+        <v>-0.007132599099039816</v>
+      </c>
+      <c r="E40">
+        <v>-0.02040982741225658</v>
+      </c>
+      <c r="F40">
+        <v>-0.05076642992485043</v>
+      </c>
+      <c r="G40">
+        <v>0.06501567102612858</v>
+      </c>
+      <c r="H40">
+        <v>-0.09654190493495075</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03942258592668797</v>
+        <v>0.04198845619211099</v>
       </c>
       <c r="C41">
-        <v>-0.01020037638190262</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.001400400115750577</v>
+      </c>
+      <c r="D41">
+        <v>-0.03890373235054177</v>
+      </c>
+      <c r="E41">
+        <v>-0.007208178148612197</v>
+      </c>
+      <c r="F41">
+        <v>-0.01064996121719182</v>
+      </c>
+      <c r="G41">
+        <v>0.01252771911352575</v>
+      </c>
+      <c r="H41">
+        <v>0.03597121212245531</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0441605352799351</v>
+        <v>0.0528034509398535</v>
       </c>
       <c r="C43">
-        <v>-0.02862532153414589</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.0182131843625346</v>
+      </c>
+      <c r="D43">
+        <v>-0.0256103908494459</v>
+      </c>
+      <c r="E43">
+        <v>-0.01762416282160027</v>
+      </c>
+      <c r="F43">
+        <v>0.009829312145426136</v>
+      </c>
+      <c r="G43">
+        <v>-0.005410954289064928</v>
+      </c>
+      <c r="H43">
+        <v>0.05110009128781143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.08952581689594859</v>
+        <v>0.09063871813454628</v>
       </c>
       <c r="C44">
-        <v>-0.1014752197292647</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06692080258279072</v>
+      </c>
+      <c r="D44">
+        <v>-0.0599083577412603</v>
+      </c>
+      <c r="E44">
+        <v>-0.09634453189208396</v>
+      </c>
+      <c r="F44">
+        <v>0.04711924837781836</v>
+      </c>
+      <c r="G44">
+        <v>0.02977840845105763</v>
+      </c>
+      <c r="H44">
+        <v>-0.008298127166045827</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02462167882552101</v>
+        <v>0.03058797756173187</v>
       </c>
       <c r="C46">
-        <v>-0.01415614282103998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.009302933313518832</v>
+      </c>
+      <c r="D46">
+        <v>-0.03171881085048341</v>
+      </c>
+      <c r="E46">
+        <v>-0.01993061230255553</v>
+      </c>
+      <c r="F46">
+        <v>0.02103947777006012</v>
+      </c>
+      <c r="G46">
+        <v>0.003878115573595922</v>
+      </c>
+      <c r="H46">
+        <v>0.04070707765236039</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02624834558164135</v>
+        <v>0.03137176496804366</v>
       </c>
       <c r="C47">
-        <v>-0.02131807233308044</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01402478044592434</v>
+      </c>
+      <c r="D47">
+        <v>-0.01545259682477245</v>
+      </c>
+      <c r="E47">
+        <v>-0.04879994138566265</v>
+      </c>
+      <c r="F47">
+        <v>0.01668801864205686</v>
+      </c>
+      <c r="G47">
+        <v>-0.03600520508218296</v>
+      </c>
+      <c r="H47">
+        <v>0.03019541482938668</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02958110717394111</v>
+        <v>0.03541019522472098</v>
       </c>
       <c r="C48">
-        <v>-0.0202878199902542</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01209640088800135</v>
+      </c>
+      <c r="D48">
+        <v>-0.0282257600500548</v>
+      </c>
+      <c r="E48">
+        <v>-0.04114563691687968</v>
+      </c>
+      <c r="F48">
+        <v>0.007960616295330342</v>
+      </c>
+      <c r="G48">
+        <v>0.008980196357402201</v>
+      </c>
+      <c r="H48">
+        <v>0.06114854316746372</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1543909880832327</v>
+        <v>0.1871969284555282</v>
       </c>
       <c r="C49">
-        <v>-0.09092798210467173</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05754441179827093</v>
+      </c>
+      <c r="D49">
+        <v>-0.0193821890198896</v>
+      </c>
+      <c r="E49">
+        <v>0.1287896310027415</v>
+      </c>
+      <c r="F49">
+        <v>0.04094068862175963</v>
+      </c>
+      <c r="G49">
+        <v>-0.05201403027181443</v>
+      </c>
+      <c r="H49">
+        <v>-0.2495859241406716</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03573591655977472</v>
+        <v>0.04444626195061712</v>
       </c>
       <c r="C50">
-        <v>-0.02579867964246789</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01860363486632827</v>
+      </c>
+      <c r="D50">
+        <v>-0.03499399014283393</v>
+      </c>
+      <c r="E50">
+        <v>-0.04865699172202975</v>
+      </c>
+      <c r="F50">
+        <v>0.02263118810155739</v>
+      </c>
+      <c r="G50">
+        <v>-0.01476084701544419</v>
+      </c>
+      <c r="H50">
+        <v>0.07196509184195395</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02398129365152897</v>
+        <v>0.02469421692186712</v>
       </c>
       <c r="C51">
-        <v>-0.01331364456514919</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.007487409202660196</v>
+      </c>
+      <c r="D51">
+        <v>-0.02360965218920686</v>
+      </c>
+      <c r="E51">
+        <v>-0.01367736899463927</v>
+      </c>
+      <c r="F51">
+        <v>0.01149888652149699</v>
+      </c>
+      <c r="G51">
+        <v>0.00292381856448114</v>
+      </c>
+      <c r="H51">
+        <v>0.002676878751964268</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1415379139768967</v>
+        <v>0.1604090767638582</v>
       </c>
       <c r="C53">
-        <v>-0.09195239815611368</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.06003749120750046</v>
+      </c>
+      <c r="D53">
+        <v>-0.01977780578312761</v>
+      </c>
+      <c r="E53">
+        <v>0.03582346229720012</v>
+      </c>
+      <c r="F53">
+        <v>0.01387321196175227</v>
+      </c>
+      <c r="G53">
+        <v>-0.001298298668786921</v>
+      </c>
+      <c r="H53">
+        <v>0.1497579388105952</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05399206626515227</v>
+        <v>0.05705320370232226</v>
       </c>
       <c r="C54">
-        <v>-0.02681334015935676</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01213720826692395</v>
+      </c>
+      <c r="D54">
+        <v>-0.02143649275036769</v>
+      </c>
+      <c r="E54">
+        <v>-0.04991270547775854</v>
+      </c>
+      <c r="F54">
+        <v>0.01268506936403377</v>
+      </c>
+      <c r="G54">
+        <v>0.01242308329770131</v>
+      </c>
+      <c r="H54">
+        <v>0.06713591635127272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.0934906637243833</v>
+        <v>0.1012264847054064</v>
       </c>
       <c r="C55">
-        <v>-0.06319650559861656</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.03991336047358993</v>
+      </c>
+      <c r="D55">
+        <v>-0.02585985602076588</v>
+      </c>
+      <c r="E55">
+        <v>-0.009524095995336402</v>
+      </c>
+      <c r="F55">
+        <v>0.0164124734954892</v>
+      </c>
+      <c r="G55">
+        <v>0.007355631213340127</v>
+      </c>
+      <c r="H55">
+        <v>0.1379166835887713</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1405834793317644</v>
+        <v>0.1608659814878639</v>
       </c>
       <c r="C56">
-        <v>-0.1041324524844203</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.06965697009342905</v>
+      </c>
+      <c r="D56">
+        <v>-0.01706238216750659</v>
+      </c>
+      <c r="E56">
+        <v>0.0355005992700854</v>
+      </c>
+      <c r="F56">
+        <v>0.03364649130536893</v>
+      </c>
+      <c r="G56">
+        <v>-0.01333807385409811</v>
+      </c>
+      <c r="H56">
+        <v>0.1571024015023828</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1179063841943004</v>
+        <v>0.09784706785989573</v>
       </c>
       <c r="C58">
-        <v>-0.01988142890461283</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.02363249711377687</v>
+      </c>
+      <c r="D58">
+        <v>-0.05445999269089882</v>
+      </c>
+      <c r="E58">
+        <v>-0.1796463002517658</v>
+      </c>
+      <c r="F58">
+        <v>0.02036097719864496</v>
+      </c>
+      <c r="G58">
+        <v>-0.04404268291646354</v>
+      </c>
+      <c r="H58">
+        <v>-0.1888849522674204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1131160103314178</v>
+        <v>0.1427256187874185</v>
       </c>
       <c r="C59">
-        <v>-0.08024693464771028</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.07478480315513905</v>
+      </c>
+      <c r="D59">
+        <v>0.3609745860693599</v>
+      </c>
+      <c r="E59">
+        <v>-0.04379999852975654</v>
+      </c>
+      <c r="F59">
+        <v>0.006646282640026479</v>
+      </c>
+      <c r="G59">
+        <v>-0.03968261069921367</v>
+      </c>
+      <c r="H59">
+        <v>-0.009182736680527966</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1907891497939674</v>
+        <v>0.2250097785984482</v>
       </c>
       <c r="C60">
-        <v>-0.1165149883426218</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.07600869397555012</v>
+      </c>
+      <c r="D60">
+        <v>-0.02430537852909396</v>
+      </c>
+      <c r="E60">
+        <v>0.07021390042499503</v>
+      </c>
+      <c r="F60">
+        <v>0.04844583294680145</v>
+      </c>
+      <c r="G60">
+        <v>0.0230176437680883</v>
+      </c>
+      <c r="H60">
+        <v>-0.151674808969029</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07577357291396489</v>
+        <v>0.08670087922887174</v>
       </c>
       <c r="C61">
-        <v>-0.0622129623390761</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.04129005065056402</v>
+      </c>
+      <c r="D61">
+        <v>-0.05156669411054674</v>
+      </c>
+      <c r="E61">
+        <v>0.01500532820341118</v>
+      </c>
+      <c r="F61">
+        <v>0.008065627495120386</v>
+      </c>
+      <c r="G61">
+        <v>-0.01045194424584242</v>
+      </c>
+      <c r="H61">
+        <v>0.07061941104540756</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1219754015566075</v>
+        <v>0.1402335836425193</v>
       </c>
       <c r="C62">
-        <v>-0.07869172508738356</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.05061355584092523</v>
+      </c>
+      <c r="D62">
+        <v>-0.02216314424279561</v>
+      </c>
+      <c r="E62">
+        <v>0.0524186721939353</v>
+      </c>
+      <c r="F62">
+        <v>0.00786370316648939</v>
+      </c>
+      <c r="G62">
+        <v>0.03185493772775298</v>
+      </c>
+      <c r="H62">
+        <v>0.1533649656333735</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05191522934851733</v>
+        <v>0.05130029330245987</v>
       </c>
       <c r="C63">
-        <v>-0.03211055458538285</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01622562458185246</v>
+      </c>
+      <c r="D63">
+        <v>-0.02495001065339229</v>
+      </c>
+      <c r="E63">
+        <v>-0.05071252711671599</v>
+      </c>
+      <c r="F63">
+        <v>0.00474291164276286</v>
+      </c>
+      <c r="G63">
+        <v>0.03791041487031913</v>
+      </c>
+      <c r="H63">
+        <v>0.08304975515270596</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1055188703167878</v>
+        <v>0.111398202224054</v>
       </c>
       <c r="C64">
-        <v>-0.04173421965293839</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01408594132521969</v>
+      </c>
+      <c r="D64">
+        <v>-0.0458572470844797</v>
+      </c>
+      <c r="E64">
+        <v>-0.02567368290697203</v>
+      </c>
+      <c r="F64">
+        <v>0.0498646884146857</v>
+      </c>
+      <c r="G64">
+        <v>0.03481043427758729</v>
+      </c>
+      <c r="H64">
+        <v>0.07495576741137956</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1135350690721269</v>
+        <v>0.1266636572845231</v>
       </c>
       <c r="C65">
-        <v>-0.06757511398431494</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04153527782065468</v>
+      </c>
+      <c r="D65">
+        <v>-0.003706210689170312</v>
+      </c>
+      <c r="E65">
+        <v>-0.001022459997476018</v>
+      </c>
+      <c r="F65">
+        <v>0.06514124761777262</v>
+      </c>
+      <c r="G65">
+        <v>0.03830057078862116</v>
+      </c>
+      <c r="H65">
+        <v>-0.08103667664391784</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1352128698589735</v>
+        <v>0.154125740589055</v>
       </c>
       <c r="C66">
-        <v>-0.09106855234267533</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.0550672101474631</v>
+      </c>
+      <c r="D66">
+        <v>-0.1114225107806026</v>
+      </c>
+      <c r="E66">
+        <v>0.04972357439228455</v>
+      </c>
+      <c r="F66">
+        <v>0.02233532944231886</v>
+      </c>
+      <c r="G66">
+        <v>0.02400659136294227</v>
+      </c>
+      <c r="H66">
+        <v>0.1247225980720657</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.069963397055558</v>
+        <v>0.07835347647806841</v>
       </c>
       <c r="C67">
-        <v>-0.02049528081283902</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.006962567751163451</v>
+      </c>
+      <c r="D67">
+        <v>-0.03054098513324909</v>
+      </c>
+      <c r="E67">
+        <v>-0.02681220272740904</v>
+      </c>
+      <c r="F67">
+        <v>0.01531394330957857</v>
+      </c>
+      <c r="G67">
+        <v>-0.00366542367547775</v>
+      </c>
+      <c r="H67">
+        <v>0.02500805473792162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05816267371337667</v>
+        <v>0.0648965816103535</v>
       </c>
       <c r="C68">
-        <v>-0.04604895033691016</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04249859738317684</v>
+      </c>
+      <c r="D68">
+        <v>0.266233420170216</v>
+      </c>
+      <c r="E68">
+        <v>-0.04816605714598596</v>
+      </c>
+      <c r="F68">
+        <v>0.0146627940703213</v>
+      </c>
+      <c r="G68">
+        <v>-0.0133598354711796</v>
+      </c>
+      <c r="H68">
+        <v>0.01989181797070858</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04953087451798573</v>
+        <v>0.04827550071722535</v>
       </c>
       <c r="C69">
-        <v>-0.02367383927958211</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.007153648581279511</v>
+      </c>
+      <c r="D69">
+        <v>-0.02079224375495639</v>
+      </c>
+      <c r="E69">
+        <v>-0.02496913510031904</v>
+      </c>
+      <c r="F69">
+        <v>-0.003011994281603602</v>
+      </c>
+      <c r="G69">
+        <v>-0.009827008541883269</v>
+      </c>
+      <c r="H69">
+        <v>0.05911210302529755</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.005087720863293939</v>
+        <v>0.02171649497684391</v>
       </c>
       <c r="C70">
-        <v>0.003243187431076386</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0001593918204830132</v>
+      </c>
+      <c r="D70">
+        <v>-0.00140315910752573</v>
+      </c>
+      <c r="E70">
+        <v>0.02706814372704779</v>
+      </c>
+      <c r="F70">
+        <v>0.02005758610782762</v>
+      </c>
+      <c r="G70">
+        <v>-0.01851770467294881</v>
+      </c>
+      <c r="H70">
+        <v>-0.05584551948397155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06080856769725986</v>
+        <v>0.06933642692049587</v>
       </c>
       <c r="C71">
-        <v>-0.04274677116852139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.04070144928207846</v>
+      </c>
+      <c r="D71">
+        <v>0.2964939891577366</v>
+      </c>
+      <c r="E71">
+        <v>-0.04483023933836828</v>
+      </c>
+      <c r="F71">
+        <v>0.04395932033613488</v>
+      </c>
+      <c r="G71">
+        <v>-0.005691072053569335</v>
+      </c>
+      <c r="H71">
+        <v>0.01396669739376344</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1344167502541317</v>
+        <v>0.1533404923976801</v>
       </c>
       <c r="C72">
-        <v>-0.07204107669384623</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.04179901213025429</v>
+      </c>
+      <c r="D72">
+        <v>0.004823367286583434</v>
+      </c>
+      <c r="E72">
+        <v>0.08874834408646297</v>
+      </c>
+      <c r="F72">
+        <v>-0.1702491056606251</v>
+      </c>
+      <c r="G72">
+        <v>0.1094512965027365</v>
+      </c>
+      <c r="H72">
+        <v>0.02109914417127075</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.249422372504829</v>
+        <v>0.2797810929385301</v>
       </c>
       <c r="C73">
-        <v>-0.1433043235928073</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.07844052999492288</v>
+      </c>
+      <c r="D73">
+        <v>-0.09649157221664567</v>
+      </c>
+      <c r="E73">
+        <v>0.1985360139631195</v>
+      </c>
+      <c r="F73">
+        <v>0.08564720328478702</v>
+      </c>
+      <c r="G73">
+        <v>-0.1980352830466443</v>
+      </c>
+      <c r="H73">
+        <v>-0.5601266433947142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07278762126855502</v>
+        <v>0.08910428413095654</v>
       </c>
       <c r="C74">
-        <v>-0.08294084189308257</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06266440058682314</v>
+      </c>
+      <c r="D74">
+        <v>-0.02842983315005294</v>
+      </c>
+      <c r="E74">
+        <v>0.005567434634380026</v>
+      </c>
+      <c r="F74">
+        <v>-0.01216155634221016</v>
+      </c>
+      <c r="G74">
+        <v>-0.03581804441952247</v>
+      </c>
+      <c r="H74">
+        <v>0.1230099234640249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09212312871837641</v>
+        <v>0.1018243367097891</v>
       </c>
       <c r="C75">
-        <v>-0.05888810085551469</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.03110654453351198</v>
+      </c>
+      <c r="D75">
+        <v>-0.01117714008204171</v>
+      </c>
+      <c r="E75">
+        <v>-0.002780979126915661</v>
+      </c>
+      <c r="F75">
+        <v>0.04359578313050813</v>
+      </c>
+      <c r="G75">
+        <v>-0.01628540029671816</v>
+      </c>
+      <c r="H75">
+        <v>0.1169835081431486</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1189541680880297</v>
+        <v>0.1358438515522586</v>
       </c>
       <c r="C76">
-        <v>-0.09871699067894817</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.06681643932161203</v>
+      </c>
+      <c r="D76">
+        <v>-0.05275034058801126</v>
+      </c>
+      <c r="E76">
+        <v>-0.01331097698669466</v>
+      </c>
+      <c r="F76">
+        <v>0.05678219167167917</v>
+      </c>
+      <c r="G76">
+        <v>-0.005790588832686395</v>
+      </c>
+      <c r="H76">
+        <v>0.153906171232948</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1180091059025893</v>
+        <v>0.1145573619711826</v>
       </c>
       <c r="C77">
-        <v>-0.05330098545266194</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.01535290849445801</v>
+      </c>
+      <c r="D77">
+        <v>-0.02646368663523362</v>
+      </c>
+      <c r="E77">
+        <v>0.02189609128117962</v>
+      </c>
+      <c r="F77">
+        <v>0.2066768210146156</v>
+      </c>
+      <c r="G77">
+        <v>0.8841907736935901</v>
+      </c>
+      <c r="H77">
+        <v>-0.1726949676950298</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09024620844335321</v>
+        <v>0.1224958470334815</v>
       </c>
       <c r="C78">
-        <v>-0.04954717894272301</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03613660872733938</v>
+      </c>
+      <c r="D78">
+        <v>-0.08832199590647777</v>
+      </c>
+      <c r="E78">
+        <v>-0.06223135052402971</v>
+      </c>
+      <c r="F78">
+        <v>0.02002610868504518</v>
+      </c>
+      <c r="G78">
+        <v>0.04259275019208507</v>
+      </c>
+      <c r="H78">
+        <v>-0.09001163999482495</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1376428990356459</v>
+        <v>0.1495681700993351</v>
       </c>
       <c r="C79">
-        <v>-0.09831687240081645</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.05744953425761235</v>
+      </c>
+      <c r="D79">
+        <v>-0.02815292304516823</v>
+      </c>
+      <c r="E79">
+        <v>0.02102397513982449</v>
+      </c>
+      <c r="F79">
+        <v>0.01129250935995446</v>
+      </c>
+      <c r="G79">
+        <v>-0.01620111407979592</v>
+      </c>
+      <c r="H79">
+        <v>0.1551650772365048</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04111339714018215</v>
+        <v>0.04175122822357923</v>
       </c>
       <c r="C80">
-        <v>-0.01815115406456792</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.006370200727550828</v>
+      </c>
+      <c r="D80">
+        <v>-0.02765892367949631</v>
+      </c>
+      <c r="E80">
+        <v>0.005238309088931834</v>
+      </c>
+      <c r="F80">
+        <v>-0.01393363875760928</v>
+      </c>
+      <c r="G80">
+        <v>-0.03853380328432653</v>
+      </c>
+      <c r="H80">
+        <v>0.03927296175218187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1139482955718562</v>
+        <v>0.1201092570693627</v>
       </c>
       <c r="C81">
-        <v>-0.07202696799141008</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03759040832254135</v>
+      </c>
+      <c r="D81">
+        <v>-0.02508092657881584</v>
+      </c>
+      <c r="E81">
+        <v>-0.001366131127033281</v>
+      </c>
+      <c r="F81">
+        <v>0.02164428275207885</v>
+      </c>
+      <c r="G81">
+        <v>-0.05047681199421759</v>
+      </c>
+      <c r="H81">
+        <v>0.1830054188170839</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1197823282115429</v>
+        <v>0.1290499889499752</v>
       </c>
       <c r="C82">
-        <v>-0.08524633574927505</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.05332384735047332</v>
+      </c>
+      <c r="D82">
+        <v>-0.0299164900544091</v>
+      </c>
+      <c r="E82">
+        <v>0.01529237206739376</v>
+      </c>
+      <c r="F82">
+        <v>0.05382142344389558</v>
+      </c>
+      <c r="G82">
+        <v>-0.05025176841709877</v>
+      </c>
+      <c r="H82">
+        <v>0.1707766876291422</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07634880833111722</v>
+        <v>0.0798368381855802</v>
       </c>
       <c r="C83">
-        <v>-0.008137900353829337</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.01215881400889617</v>
+      </c>
+      <c r="D83">
+        <v>-0.03995672520828774</v>
+      </c>
+      <c r="E83">
+        <v>-0.009293220923740872</v>
+      </c>
+      <c r="F83">
+        <v>0.04901087666227435</v>
+      </c>
+      <c r="G83">
+        <v>-0.07846390662820038</v>
+      </c>
+      <c r="H83">
+        <v>-0.04720777279251819</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02562292747882824</v>
+        <v>0.03882008345467028</v>
       </c>
       <c r="C84">
-        <v>-0.02425383380511466</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.0210328211919304</v>
+      </c>
+      <c r="D84">
+        <v>-0.0370397841845523</v>
+      </c>
+      <c r="E84">
+        <v>-0.02254713706994627</v>
+      </c>
+      <c r="F84">
+        <v>-0.04816761363690156</v>
+      </c>
+      <c r="G84">
+        <v>-0.06211156480067641</v>
+      </c>
+      <c r="H84">
+        <v>0.01832978545516147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1142872392592234</v>
+        <v>0.118240678497186</v>
       </c>
       <c r="C85">
-        <v>-0.06861422734710428</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03411034744913472</v>
+      </c>
+      <c r="D85">
+        <v>-0.02810018151672488</v>
+      </c>
+      <c r="E85">
+        <v>-0.005364716588793279</v>
+      </c>
+      <c r="F85">
+        <v>0.05477988170687873</v>
+      </c>
+      <c r="G85">
+        <v>-0.01605938937582397</v>
+      </c>
+      <c r="H85">
+        <v>0.1454661633083083</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04687110393992414</v>
+        <v>0.05148987423421903</v>
       </c>
       <c r="C86">
-        <v>-0.02449688794775728</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01203711321425761</v>
+      </c>
+      <c r="D86">
+        <v>-0.02492914610565096</v>
+      </c>
+      <c r="E86">
+        <v>-0.05636491156930844</v>
+      </c>
+      <c r="F86">
+        <v>0.02688521735020367</v>
+      </c>
+      <c r="G86">
+        <v>-0.004282734613577486</v>
+      </c>
+      <c r="H86">
+        <v>0.007930061889660299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1184124726531708</v>
+        <v>0.1214490495319593</v>
       </c>
       <c r="C87">
-        <v>-0.07858889831930925</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.03906542688386878</v>
+      </c>
+      <c r="D87">
+        <v>-0.06996992664493619</v>
+      </c>
+      <c r="E87">
+        <v>-0.01662971654684825</v>
+      </c>
+      <c r="F87">
+        <v>0.0105280069497472</v>
+      </c>
+      <c r="G87">
+        <v>0.1003739373667214</v>
+      </c>
+      <c r="H87">
+        <v>0.005425287964443404</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05343863199915459</v>
+        <v>0.05874729612473442</v>
       </c>
       <c r="C88">
-        <v>-0.03078050014825627</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.01722651508856404</v>
+      </c>
+      <c r="D88">
+        <v>-0.0229087409526374</v>
+      </c>
+      <c r="E88">
+        <v>-0.01737679048773847</v>
+      </c>
+      <c r="F88">
+        <v>0.009189425373936326</v>
+      </c>
+      <c r="G88">
+        <v>0.01135730693036289</v>
+      </c>
+      <c r="H88">
+        <v>0.06556235739810214</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08288008965591206</v>
+        <v>0.1019772092310029</v>
       </c>
       <c r="C89">
-        <v>-0.06649565217813307</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.06429047970063273</v>
+      </c>
+      <c r="D89">
+        <v>0.3320254002070306</v>
+      </c>
+      <c r="E89">
+        <v>-0.07528700983979175</v>
+      </c>
+      <c r="F89">
+        <v>0.07869825657273176</v>
+      </c>
+      <c r="G89">
+        <v>-0.02035138147831617</v>
+      </c>
+      <c r="H89">
+        <v>-0.007545860326424111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07412233291740031</v>
+        <v>0.08639437445286842</v>
       </c>
       <c r="C90">
-        <v>-0.05233750300020621</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.04881509091509049</v>
+      </c>
+      <c r="D90">
+        <v>0.3067786281614811</v>
+      </c>
+      <c r="E90">
+        <v>-0.06163504662559258</v>
+      </c>
+      <c r="F90">
+        <v>0.006721596457160552</v>
+      </c>
+      <c r="G90">
+        <v>-0.006526778669686929</v>
+      </c>
+      <c r="H90">
+        <v>0.0166177979826223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.07896253170550774</v>
+        <v>0.08718397890903469</v>
       </c>
       <c r="C91">
-        <v>-0.06099328733612343</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.03723826159113822</v>
+      </c>
+      <c r="D91">
+        <v>-0.02836449107160523</v>
+      </c>
+      <c r="E91">
+        <v>-0.0138924296574416</v>
+      </c>
+      <c r="F91">
+        <v>0.006583098561483976</v>
+      </c>
+      <c r="G91">
+        <v>-0.04857017106553719</v>
+      </c>
+      <c r="H91">
+        <v>0.07090601626312469</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.08295047604732149</v>
+        <v>0.09509689086697624</v>
       </c>
       <c r="C92">
-        <v>-0.06637955733606464</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.06086681134290948</v>
+      </c>
+      <c r="D92">
+        <v>0.3485928690584009</v>
+      </c>
+      <c r="E92">
+        <v>-0.05485977511513201</v>
+      </c>
+      <c r="F92">
+        <v>0.03763598818660586</v>
+      </c>
+      <c r="G92">
+        <v>0.00270077377957875</v>
+      </c>
+      <c r="H92">
+        <v>0.01958126694628659</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06648922045573684</v>
+        <v>0.08382491042501472</v>
       </c>
       <c r="C93">
-        <v>-0.05880733661199129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.05917215193360078</v>
+      </c>
+      <c r="D93">
+        <v>0.3066875192578571</v>
+      </c>
+      <c r="E93">
+        <v>-0.03700639306478797</v>
+      </c>
+      <c r="F93">
+        <v>0.04937539838108265</v>
+      </c>
+      <c r="G93">
+        <v>0.006780202599703955</v>
+      </c>
+      <c r="H93">
+        <v>-0.007256042351451663</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1250309146302609</v>
+        <v>0.1277097766190302</v>
       </c>
       <c r="C94">
-        <v>-0.07408245407581021</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03362346510616492</v>
+      </c>
+      <c r="D94">
+        <v>-0.04856966425191845</v>
+      </c>
+      <c r="E94">
+        <v>0.02007693574292911</v>
+      </c>
+      <c r="F94">
+        <v>0.02291142191391222</v>
+      </c>
+      <c r="G94">
+        <v>-0.0421893537843914</v>
+      </c>
+      <c r="H94">
+        <v>0.09148375825958875</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1157143838484821</v>
+        <v>0.1248743836810451</v>
       </c>
       <c r="C95">
-        <v>-0.04797389335895439</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.01602131501639145</v>
+      </c>
+      <c r="D95">
+        <v>-0.05977018003634386</v>
+      </c>
+      <c r="E95">
+        <v>0.008895725817439384</v>
+      </c>
+      <c r="F95">
+        <v>0.03515238458117883</v>
+      </c>
+      <c r="G95">
+        <v>-0.007633828696186415</v>
+      </c>
+      <c r="H95">
+        <v>-0.006529569323896661</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2021225255097989</v>
+        <v>0.2159576159048096</v>
       </c>
       <c r="C97">
-        <v>-0.06104865637698904</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.01453114749460536</v>
+      </c>
+      <c r="D97">
+        <v>0.06919169986151767</v>
+      </c>
+      <c r="E97">
+        <v>0.1615983545341989</v>
+      </c>
+      <c r="F97">
+        <v>-0.8993786838159991</v>
+      </c>
+      <c r="G97">
+        <v>0.1479546183188561</v>
+      </c>
+      <c r="H97">
+        <v>-0.01009790921747404</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2397646255772072</v>
+        <v>0.2693669492876291</v>
       </c>
       <c r="C98">
-        <v>-0.1063861826725961</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.0504156512399953</v>
+      </c>
+      <c r="D98">
+        <v>-0.06267160878624863</v>
+      </c>
+      <c r="E98">
+        <v>0.1601002007358227</v>
+      </c>
+      <c r="F98">
+        <v>0.0501129355678253</v>
+      </c>
+      <c r="G98">
+        <v>-0.2772973580100797</v>
+      </c>
+      <c r="H98">
+        <v>-0.196642226877205</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.5283102606429404</v>
+        <v>0.3190993413609015</v>
       </c>
       <c r="C99">
-        <v>0.8374845887172853</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9348039414975166</v>
+      </c>
+      <c r="D99">
+        <v>0.06555845659885509</v>
+      </c>
+      <c r="E99">
+        <v>-0.04256436796831845</v>
+      </c>
+      <c r="F99">
+        <v>0.04840812856105273</v>
+      </c>
+      <c r="G99">
+        <v>-0.01259847027343662</v>
+      </c>
+      <c r="H99">
+        <v>0.04256872137487528</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03900084562017991</v>
+        <v>0.04676520402058057</v>
       </c>
       <c r="C101">
-        <v>-0.03134735207826304</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02316559467422496</v>
+      </c>
+      <c r="D101">
+        <v>-0.006481955262306775</v>
+      </c>
+      <c r="E101">
+        <v>-0.04429864628304457</v>
+      </c>
+      <c r="F101">
+        <v>0.008333628334155064</v>
+      </c>
+      <c r="G101">
+        <v>-0.007101991139721924</v>
+      </c>
+      <c r="H101">
+        <v>0.09334122006618724</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
